--- a/medicine/Pharmacie/Antidotaire_Nicolas/Antidotaire_Nicolas.xlsx
+++ b/medicine/Pharmacie/Antidotaire_Nicolas/Antidotaire_Nicolas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Antidotaire Nicolas (en latin : Antidotarium Nicolai), parfois aussi appelé Petit antidotaire (en latin : Antidotarium parvum), est un livre de recettes médicales composé entre le XIe et le XIIIe siècles dans le milieu de l'école de médecine de Salerne. Bien qu'il soit traditionnellement attribué à un dénommé Nicolas de Salerne, son auteur et sa datation ont fait l'objet de plusieurs hypothèses contradictoire. L'antidotaire contient en moyenne 150 préparations, ce qui le rendait beaucoup plus pratique à utiliser que les recueils précédents qui en comptaient plus d'un millier. L'ouvrage initialement composé en latin a été traduit dans plusieurs langues vernaculaires et a connu un immense succès jusqu'à la fin du Moyen Âge. Il était le livre  officiel d'enseignement pour la Faculté de médecine de Paris à partir de 1270, et les statuts des apothicaires d'Arles ou de Montpellier obligeaient leurs ressortissants à se conformer à ses prescriptions[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Antidotaire Nicolas (en latin : Antidotarium Nicolai), parfois aussi appelé Petit antidotaire (en latin : Antidotarium parvum), est un livre de recettes médicales composé entre le XIe et le XIIIe siècles dans le milieu de l'école de médecine de Salerne. Bien qu'il soit traditionnellement attribué à un dénommé Nicolas de Salerne, son auteur et sa datation ont fait l'objet de plusieurs hypothèses contradictoire. L'antidotaire contient en moyenne 150 préparations, ce qui le rendait beaucoup plus pratique à utiliser que les recueils précédents qui en comptaient plus d'un millier. L'ouvrage initialement composé en latin a été traduit dans plusieurs langues vernaculaires et a connu un immense succès jusqu'à la fin du Moyen Âge. Il était le livre  officiel d'enseignement pour la Faculté de médecine de Paris à partir de 1270, et les statuts des apothicaires d'Arles ou de Montpellier obligeaient leurs ressortissants à se conformer à ses prescriptions.
 </t>
         </is>
       </c>
